--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowHeight="12450" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Run</t>
   </si>
@@ -28,55 +28,65 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>TestCaseStatus</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>PageTitle</t>
+  </si>
+  <si>
+    <t>Free CRM #1 cloud software for any business large or small</t>
+  </si>
+  <si>
+    <t>TestCase_1</t>
+  </si>
+  <si>
+    <t>Siba</t>
+  </si>
+  <si>
+    <t>Liku</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>TestCaseId</t>
-  </si>
-  <si>
-    <t>TestCaseStatus</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>naveenk</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>PageTitle</t>
-  </si>
-  <si>
-    <t>Free CRM #1 cloud software for any business large or small</t>
-  </si>
-  <si>
-    <t>TestCase_1</t>
-  </si>
-  <si>
-    <t>Siba</t>
-  </si>
-  <si>
-    <t>Liku</t>
-  </si>
-  <si>
-    <t>Iteration</t>
+    <t/>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,25 +161,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -218,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -253,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -347,21 +363,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -378,7 +394,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -430,140 +446,138 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
@@ -572,15 +586,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>Run</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -73,13 +70,19 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>chrome32</t>
+  </si>
+  <si>
+    <t>ie64</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -489,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -503,25 +506,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,25 +532,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,25 +556,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
   <si>
     <t>Run</t>
   </si>
@@ -67,22 +67,40 @@
     <t>Naveen</t>
   </si>
   <si>
+    <t>chrome32</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>pqr@gmail.com</t>
+  </si>
+  <si>
+    <t>mnp@gmail.com</t>
+  </si>
+  <si>
+    <t>TestCase_2</t>
+  </si>
+  <si>
+    <t>firefox64</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>chrome32</t>
-  </si>
-  <si>
-    <t>ie64</t>
-  </si>
-  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -90,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +124,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,19 +148,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,22 +201,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,116 +514,215 @@
     <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2"/>
+      <c r="F2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10">
+        <v>123789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10">
+        <v>123789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10">
+        <v>123789</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I5"/>
+    <hyperlink r:id="rId2" ref="I6"/>
+    <hyperlink r:id="rId3" ref="I7"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>Run</t>
   </si>
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="12450" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Run</t>
   </si>
@@ -70,28 +70,31 @@
     <t>chrome32</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>pqr@gmail.com</t>
+  </si>
+  <si>
+    <t>mnp@gmail.com</t>
+  </si>
+  <si>
+    <t>TestCase_2</t>
+  </si>
+  <si>
+    <t>firefox64</t>
+  </si>
+  <si>
+    <t>TestCase_3</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>pqr@gmail.com</t>
-  </si>
-  <si>
-    <t>mnp@gmail.com</t>
-  </si>
-  <si>
-    <t>TestCase_2</t>
-  </si>
-  <si>
-    <t>firefox64</t>
   </si>
   <si>
     <t/>
@@ -107,7 +110,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,24 +145,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,31 +186,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -238,15 +218,79 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$G$6" spid="_x0000_s1037"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="7277100" y="762000"/>
+              <a:ext cx="733425" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -281,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,21 +454,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +485,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -493,30 +537,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="53.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,200 +589,272 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="J8" s="6">
+        <v>123789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6">
+        <v>123789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" s="9" t="s">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="10">
-        <v>123789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6" s="11" t="s">
+      <c r="I10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="10">
-        <v>123789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="J10" s="6">
         <v>123789</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I5"/>
-    <hyperlink r:id="rId2" ref="I6"/>
-    <hyperlink r:id="rId3" ref="I7"/>
+    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I10" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>
